--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_11-23.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_11-23.xlsx
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>2:3</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
@@ -1100,11 +1106,11 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>169.19999999999999</v>
+        <v>32</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>0.29999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1120,17 +1126,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>73.319999999999993</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>1</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1138,7 +1144,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1146,13 +1152,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>116</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
@@ -1164,7 +1170,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1178,11 +1184,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1190,7 +1196,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1198,17 +1204,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1224,17 +1230,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1242,7 +1248,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1250,51 +1256,77 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="25.5" customHeight="1">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c t="s" r="B25" s="7">
+        <v>42</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c t="s" r="H25" s="8">
+        <v>43</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9">
+        <v>4</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="25" ht="26.25" customHeight="1">
-      <c r="K25" s="11">
-        <v>1380.0999999999999</v>
-      </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="12">
-        <v>42</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c t="s" r="F26" s="13">
-        <v>43</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-      <c t="s" r="I26" s="15">
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="K26" s="11">
+        <v>1412.0999999999999</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="12">
         <v>44</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c t="s" r="F27" s="13">
+        <v>45</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c t="s" r="I27" s="15">
+        <v>46</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="77">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1365,10 +1397,13 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:N27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
